--- a/Team-Data/2020-21/1-2-2020-21.xlsx
+++ b/Team-Data/2020-21/1-2-2020-21.xlsx
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>4</v>
@@ -2234,16 +2234,16 @@
         <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="T10" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="U10" t="n">
         <v>23.2</v>
       </c>
       <c r="V10" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2315,13 +2315,13 @@
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
         <v>19</v>
@@ -3225,13 +3225,13 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU15" t="n">
         <v>6</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
         <v>26</v>
@@ -4141,7 +4141,7 @@
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -6143,7 +6143,7 @@
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>22</v>
